--- a/temp/test.xlsx
+++ b/temp/test.xlsx
@@ -161,9 +161,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="30.0" customWidth="true"/>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="3" max="3" width="16.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
@@ -183,35 +183,35 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
